--- a/ExampleData.xlsx
+++ b/ExampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanmaier/SynologyDrive/Master/2nd/Artificial Intelligence/Fallstudie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C558F1-26F4-1D4E-923B-B49F49D4B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA27573-9E3B-F340-8B6D-4D7F7FA6DE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{C0C2D040-F6C4-4648-A67D-53D9A0E0B064}"/>
   </bookViews>
@@ -32,71 +32,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Input</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>resources/js/base/fbplugins/AttachmentsPlugins/AttachmentUpload.js</t>
   </si>
   <si>
-    <t>@@ -810,7 +810,7 @@ Ext.namespace( 'CP.ux.fbPlugin.AttachmentsPlugin' ); saveButton.setText( _( 'CP.upload' ) ); } else { - if ( this.type == 'File' ) { + if ( this.ciId.toLowerCase().indexOf( 'new' ) === -1 &amp;&amp; this.type === 'File' ) { fileName = this.originalName; extension = this.extension; }</t>
-  </si>
-  <si>
     <t>resources/js/cockpit/fbplugins/DocumentManagementObjects/DocumentUpload.js</t>
   </si>
   <si>
-    <t>@@ -813,7 +813,7 @@ Ext.namespace( 'CP.ux.fbPlugin.DocumentManagement' ); saveButton.setText( _( 'CP.upload' ) ); } else { - if ( this.type == 'File' ) { + if ( this.ciId.toLowerCase().indexOf( 'new' ) === -1 &amp;&amp; this.type === 'File' ) { fileName = this.originalName; extension = this.extension; }</t>
-  </si>
-  <si>
     <t>resources/js/base/data/CiCache.js</t>
   </si>
   <si>
-    <t>@@ -653,7 +653,7 @@ [].concat( formFieldNames ).forEach( function( formFieldName ) { rawData[ formUid ] = rawData[ formUid ] || this.getFormRawData( formUid ) || {}; var refDir = rawData[ formUid ][ formFieldName + ':refDir' ]; - var ciId = refDir == 'Dest' ? ciReference.CIR_CI_ID_DEST : ciReference.CIR_CI_ID_SRC; + var ciId = refDir === 'Dest' ? ciReference.CIR_CI_ID_DEST : ciReference.CIR_CI_ID_SRC; ciItem = null; if ( ciReference.CIR_CIST_ID == 21 &amp;&amp; rawData[ formUid ][ formFieldName ] == ciId ) { @@ -663,12 +663,12 @@ else if ( ciReference.CIR_CIST_ID != 21 ) { rawData[ formUid ][ formFieldName ] = ciId; ciItem = this.getCiItem( ciId, context ); + rawData[ formUid ][ formFieldName + ':value' ] = ciId; + rawData[ formUid ][ formFieldName + ':initialValue' ] = ciId; + rawData[ formUid ][ baseFieldName ] = ciId; } if ( ciItem ) { var baseFieldName = CP.getBaseName( formFieldName ); - rawData[ formUid ][ formFieldName + ':value' ] = ciItem.CI_ID; - rawData[ formUid ][ formFieldName + ':initialValue' ] = ciItem.CI_ID; - rawData[ formUid ][ baseFieldName ] = ciItem.CI_ID; rawData[ formUid ][ baseFieldName + ':CI_KEY' ] = ciItem.CI_KEY; rawData[ formUid ][ baseFieldName + ':CI_NAME' ] = ciItem.CI_NAME; }</t>
-  </si>
-  <si>
     <t>resources/js/base/BaseView/FormView/DynamicForm.js</t>
   </si>
   <si>
-    <t>@@ -2924,11 +2924,11 @@ this.setFieldValue( fld.name, itemData[ attr[ 1 ] ] ); } }, this ); - - // update cache - CP.ciCache.updateRefCombo( this._formUid, field.name, newValue, oldValue, field.refDir, field.targetFieldName, itemData ); } + // update cache + CP.ciCache.updateRefCombo( this._formUid, field.name, newValue, oldValue, field.refDir, field.targetFieldName, itemData ); + // update associated property fields if ( ciItem &amp;&amp; field.includeProperties ) { field.includeProperties.forEach( function ( ciptName ) {</t>
-  </si>
-  <si>
     <t>resources/js/base/form/ComboBox/LinkComboBox.js</t>
   </si>
   <si>
-    <t>@@ -233,7 +233,8 @@ CP.form.LinkComboBox = Ext.extend( CP.form.ComboBox, { if ( Ext.isEmpty( this.value ) ) { linkTrigger.addClass( this._disabledClass ); } - else if ( this.linkAlwaysEnabled ) { + + if ( this.linkAlwaysEnabled ) { linkTrigger.addClass( this._alwaysEnabledClass ); } }</t>
-  </si>
-  <si>
     <t>resources/js/base/form/ComboBox/LinkComboBox/ReferenceComboBox.js</t>
   </si>
   <si>
-    <t>@@ -754,9 +754,9 @@ CP.form.ReferenceComboBox = Ext.extend( CP.form.LinkComboBox, { * Handle the trigger's click event -&gt; jump to link target CI_ITEM */ onTrigger1Click: function() { - var ciId = this.getValue(), - ciKey, - ciName, + var ciId = this.getValue(), + ciKey = '', + ciName = '', rec, panelConfig; @@ -773,22 +773,25 @@ CP.form.ReferenceComboBox = Ext.extend( CP.form.LinkComboBox, { ciKey = this._lastCiKey; ciName = this._lastCiName; } + } + else { + ciId = 'NEW'; + } - panelConfig = { - ciId : ciId, - ciKey : ciKey, - ciName : ciName, - citName : this.ciType, - forceGenericView: this.linkTarget === 'CiBrowser', - targetArea : 'active' - }; - - if ( this.linkTarget !== 'DetailView' &amp;&amp; this.linkTarget !== 'CiBrowser' &amp;&amp; CP.isJson( this.linkTarget ) ) { - Ext.apply( panelConfig, Ext.decode( this.linkTarget ) ); - } + panelConfig = { + ciId : ciId, + ciKey : ciKey, + ciName : ciName, + citName : this.ciType, + forceGenericView: this.linkTarget === 'CiBrowser', + targetArea : 'active' + }; - CP.panelManager.addDetailPanel( panelConfig ); + if ( this.linkTarget !== 'DetailView' &amp;&amp; this.linkTarget !== 'CiBrowser' &amp;&amp; CP.isJson( this.linkTarget ) ) { + Ext.apply( panelConfig, Ext.decode( this.linkTarget ) ); } + + CP.panelManager.addDetailPanel( panelConfig ); }, clearValue: function() {</t>
-  </si>
-  <si>
     <t>perl/reporting/bin/report.pl</t>
   </si>
   <si>
-    <t>@@ -371,9 +371,10 @@ sub getStoredQueryResult( $ ) { $cmdb-&gt;dbh-&gt;do( 'SET CURRENT QUERY OPTIMIZATION 2' ); $cmdb-&gt;dbh-&gt;{HandleError} = sub { + my $err = $cmdb-&gt;dbh-&gt;errstr; log_crit( $sql ); writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); - log_die( $cmdb-&gt;dbh-&gt;errstr ); + log_die( $err ); }; my $sth = $cmdb-&gt;dbh-&gt;prepare( $sql );</t>
-  </si>
-  <si>
-    <t>@@ -229,6 +229,7 @@ sub exportRawXml( $$$$ ) { my $currentCiId=0; my $isSelfClosing=1; my $rowRef; + my $lastQuery; my $startTime = time; my $item = "$schema.$tableAreaMapping{$tableArea}_item"; @@ -237,9 +238,20 @@ sub exportRawXml( $$$$ ) { $cmdb-&gt;dbh-&gt;do( 'SET CURRENT QUERY OPTIMIZATION 2' ); + + $cmdb-&gt;dbh-&gt;{Callbacks} = { + prepare =&gt; sub { + my ($dbh, $query, $attrs) = @_; + $lastQuery=$query; + return; + }, + }; + $cmdb-&gt;dbh-&gt;{HandleError} = sub { - writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); - croak( $cmdb-&gt;dbh-&gt;errstr ); + my $err = $cmdb-&gt;dbh-&gt;errstr; + log_crit( $lastQuery ); + writeErrorToDb( $config, $err ); + log_die( $err ); }; $propertySql = " @@ -256,7 +268,7 @@ sub exportRawXml( $$$$ ) { "; $referenceSql = " - with t ( ci_id ) as ( $sql ) + with t ( ci_id, ci_key ) as ( $sql ) select distinct ref.cir_id,srcCiType.cit_name as cit_name_src,srcItem.ci_key as ci_key_src, rtype.cirt_name,destCiType.cit_name as cit_name_dest, destItem.ci_key as ci_key_dest,ref.cir_cist_id @@ -359,6 +371,7 @@ sub getStoredQueryResult( $ ) { $cmdb-&gt;dbh-&gt;do( 'SET CURRENT QUERY OPTIMIZATION 2' ); $cmdb-&gt;dbh-&gt;{HandleError} = sub { + log_crit( $sql ); writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); log_die( $cmdb-&gt;dbh-&gt;errstr ); };</t>
-  </si>
-  <si>
     <t>perl/base/Cockpit/Log.pm</t>
   </si>
   <si>
-    <t>@@ -27,12 +27,14 @@ BEGIN { } use Carp; -use POSIX 'strftime'; +#use POSIX 'strftime'; use FindBin; use DBI; use DBD::DB2; use Cockpit::Config; use Cockpit::CI; +use Time::HiRes qw(time); +use Date::Format; my $log_levels = { 'DEBUG' =&gt; 1, @@ -44,7 +46,7 @@ my $log_levels = { my $log_level; my $max_log_level = 0; my $log_prefix = ''; -my $db_log = $FindBin::Script; +my $db_log = undef;#$FindBin::Script; sub set_log_level($); set_log_level(get_config_log_level()); @@ -276,7 +278,14 @@ sub log_msg($$) { chomp($msg); if ($fh) { - print $fh sprintf("%s [%-5s] %s%s\n", strftime('%Y-%m-%d %H:%M:%S', localtime), $severity, $log_prefix, $msg); + my $localtime = time; + my $timestamp = time2str( '%Y-%m-%d %H:%M:%S', $localtime); + my $msec; + $msec = sprintf( "%.3f", $localtime ); + ( $msec ) = ( $msec =~ /\d+\.(\d+)/ ); + $timestamp .= ".$msec"; + + print $fh sprintf("%s [%-5s] %s%s\n", $timestamp, $severity, $log_prefix, $msg); } if ($console) { if ($severity eq 'WARN' or $severity eq 'CRIT') {</t>
-  </si>
-  <si>
-    <t>@@ -22,7 +22,6 @@ use Cockpit::CI; use Cockpit::Tmp; use Cockpit::DB; use Archive::Zip; -use Carp qw( croak carp ); use Data::Dumper; use Scalar::Util qw(looks_like_number); use Time::HiRes qw(time); @@ -35,6 +34,8 @@ use File::Temp qw/ tempfile /; use File::Basename; use JSON; +$SIG{__DIE__} = sub { log_die(shift) }; + # Prototypes sub readJsonConfig( $ ); sub getStoredQueryResult( $ ); @@ -60,6 +61,9 @@ sub writeCsvRow( $$$\%\% ); sub closeFile( $ ); sub cdata( $ ); +# open log file +open_log( filename =&gt; '/data/log/perl/error.log', loglevel =&gt; 'DEBUG' ); + # initialize variables # flag to prevent infinite error logging @@ -72,7 +76,7 @@ my $args = getopt( qw( jsonFile|j=s ) ); my $tmpFileName; if ( !$args-&gt;{jsonFile} ) { - croak( 'Missing parameter --jsonFile!' ); + log_die( 'Missing parameter --jsonFile!' ); exit(1); } @@ -95,9 +99,6 @@ else { set_notesid( $config-&gt;{notesId} ); set_timestamp( $config-&gt;{timestamp} ); -# open log file TODO: check how to implement logging!!! -# open_log( filename =&gt; '/data/log/perl.log', loglevel =&gt; 'DEBUG' ); - my $mappingType = 'resourceBased'; # resourceBased || resultBased # map DB2 data types to report data types @@ -159,6 +160,8 @@ if ( not $config-&gt;{preserveOutputFile} ) { # close connection to CMDB $cmdb-&gt;disconnect(); +close_log(); + exit(0); @@ -357,7 +360,7 @@ sub getStoredQueryResult( $ ) { $cmdb-&gt;dbh-&gt;{HandleError} = sub { writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); - croak( $cmdb-&gt;dbh-&gt;errstr ); + log_die( $cmdb-&gt;dbh-&gt;errstr ); }; my $sth = $cmdb-&gt;dbh-&gt;prepare( $sql ); @@ -384,7 +387,7 @@ sub getStoredQueryResult( $ ) { ); # croak (-&gt; die) doesn't work in this case... so we use kill to end the process - carp( $err ); + log_crit( $err ); kill 9, $$; } else { @@ -1174,6 +1177,8 @@ sub writeResultToDb( $$ ) { sub writeErrorToDb( $$ ) { my ( $config, $errorMsg ) = @_; + $cmdb-&gt;dbh-&gt;{'HandleError'} = undef; + # do not write anything to db if preserveOutputFile is set if ( not $config-&gt;{preserveOutputFile} ) { my $sql = "</t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -106,19 +73,139 @@
     <t>4.0.11</t>
   </si>
   <si>
-    <t>Bugfixes</t>
-  </si>
-  <si>
     <t>4.0.12</t>
   </si>
   <si>
-    <t>countBugifxes per file</t>
-  </si>
-  <si>
     <t>CodeChanges</t>
   </si>
   <si>
     <t>foundInTag</t>
+  </si>
+  <si>
+    <t>renamed_file</t>
+  </si>
+  <si>
+    <t>new_file</t>
+  </si>
+  <si>
+    <t>deleted_file</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>additions</t>
+  </si>
+  <si>
+    <t>deletions</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Bugfix</t>
+  </si>
+  <si>
+    <t>2020-10-20T12:17:17.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-19T12:32:41.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-12T15:30:10.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-12T15:28:21.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-12T15:27:16.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-08T11:34:50.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-07T17:44:53.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-07T09:35:18.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-06T15:43:32.000+02:00</t>
+  </si>
+  <si>
+    <t>2020-10-06T12:43:49.000+02:00</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>fixed issue where RefCombos where gets cleared after saving cached DynamicForms.</t>
+  </si>
+  <si>
+    <t>fixed issue where references could not be deleted via RefCombos in cached dynamicForms (solves #8804)</t>
+  </si>
+  <si>
+    <t>fixed issue in DynamicForm where default value didn't work (solves #8572)</t>
+  </si>
+  <si>
+    <t>fixed issue where tree root item was loaded with out CI_CIST_ID causing issues in CiCache (solves #8571)</t>
+  </si>
+  <si>
+    <t>fixed issue where OnLoad events didn't work in standalone forms (solves #8766)</t>
+  </si>
+  <si>
+    <t>fixed issue where TreeDataService returned incomplete data (solves #8778)</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>logging for perl report module added (/data/log/perl/error.log)</t>
+  </si>
+  <si>
+    <t>CiBrowserOverview - make CI-ID column a normal integer one</t>
+  </si>
+  <si>
+    <t>Bugifxes per file</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>Ext.namespace( 'CP.ux.fbPlugin.AttachmentsPlugin' ); saveButton.setText( _( 'CP.upload' ) ); } else { - if ( this.type == 'File' ) { + if ( this.ciId.toLowerCase().indexOf( 'new' ) === -1 &amp;&amp; this.type === 'File' ) { fileName = this.originalName; extension = this.extension; }</t>
+  </si>
+  <si>
+    <t>Ext.namespace( 'CP.ux.fbPlugin.DocumentManagement' ); saveButton.setText( _( 'CP.upload' ) ); } else { - if ( this.type == 'File' ) { + if ( this.ciId.toLowerCase().indexOf( 'new' ) === -1 &amp;&amp; this.type === 'File' ) { fileName = this.originalName; extension = this.extension; }</t>
+  </si>
+  <si>
+    <t>[].concat( formFieldNames ).forEach( function( formFieldName ) { rawData[ formUid ] = rawData[ formUid ] || this.getFormRawData( formUid ) || {}; var refDir = rawData[ formUid ][ formFieldName + ':refDir' ]; - var ciId = refDir == 'Dest' ? ciReference.CIR_CI_ID_DEST : ciReference.CIR_CI_ID_SRC; + var ciId = refDir === 'Dest' ? ciReference.CIR_CI_ID_DEST : ciReference.CIR_CI_ID_SRC; ciItem = null; if ( ciReference.CIR_CIST_ID == 21 &amp;&amp; rawData[ formUid ][ formFieldName ] == ciId ) { @@ -663,12 +663,12 @@ else if ( ciReference.CIR_CIST_ID != 21 ) { rawData[ formUid ][ formFieldName ] = ciId; ciItem = this.getCiItem( ciId, context ); + rawData[ formUid ][ formFieldName + ':value' ] = ciId; + rawData[ formUid ][ formFieldName + ':initialValue' ] = ciId; + rawData[ formUid ][ baseFieldName ] = ciId; } if ( ciItem ) { var baseFieldName = CP.getBaseName( formFieldName ); - rawData[ formUid ][ formFieldName + ':value' ] = ciItem.CI_ID; - rawData[ formUid ][ formFieldName + ':initialValue' ] = ciItem.CI_ID; - rawData[ formUid ][ baseFieldName ] = ciItem.CI_ID; rawData[ formUid ][ baseFieldName + ':CI_KEY' ] = ciItem.CI_KEY; rawData[ formUid ][ baseFieldName + ':CI_NAME' ] = ciItem.CI_NAME; }</t>
+  </si>
+  <si>
+    <t>this.setFieldValue( fld.name, itemData[ attr[ 1 ] ] ); } }, this ); - - // update cache - CP.ciCache.updateRefCombo( this._formUid, field.name, newValue, oldValue, field.refDir, field.targetFieldName, itemData ); } + // update cache + CP.ciCache.updateRefCombo( this._formUid, field.name, newValue, oldValue, field.refDir, field.targetFieldName, itemData ); + // update associated property fields if ( ciItem &amp;&amp; field.includeProperties ) { field.includeProperties.forEach( function ( ciptName ) {</t>
+  </si>
+  <si>
+    <t>CP.form.LinkComboBox = Ext.extend( CP.form.ComboBox, { if ( Ext.isEmpty( this.value ) ) { linkTrigger.addClass( this._disabledClass ); } - else if ( this.linkAlwaysEnabled ) { + + if ( this.linkAlwaysEnabled ) { linkTrigger.addClass( this._alwaysEnabledClass ); } }</t>
+  </si>
+  <si>
+    <t>CP.form.ReferenceComboBox = Ext.extend( CP.form.LinkComboBox, { * Handle the trigger's click event -&gt; jump to link target CI_ITEM */ onTrigger1Click: function() { - var ciId = this.getValue(), - ciKey, - ciName, + var ciId = this.getValue(), + ciKey = '', + ciName = '', rec, panelConfig; @@ -773,22 +773,25 @@ CP.form.ReferenceComboBox = Ext.extend( CP.form.LinkComboBox, { ciKey = this._lastCiKey; ciName = this._lastCiName; } + } + else { + ciId = 'NEW'; + } - panelConfig = { - ciId : ciId, - ciKey : ciKey, - ciName : ciName, - citName : this.ciType, - forceGenericView: this.linkTarget === 'CiBrowser', - targetArea : 'active' - }; - - if ( this.linkTarget !== 'DetailView' &amp;&amp; this.linkTarget !== 'CiBrowser' &amp;&amp; CP.isJson( this.linkTarget ) ) { - Ext.apply( panelConfig, Ext.decode( this.linkTarget ) ); - } + panelConfig = { + ciId : ciId, + ciKey : ciKey, + ciName : ciName, + citName : this.ciType, + forceGenericView: this.linkTarget === 'CiBrowser', + targetArea : 'active' + }; - CP.panelManager.addDetailPanel( panelConfig ); + if ( this.linkTarget !== 'DetailView' &amp;&amp; this.linkTarget !== 'CiBrowser' &amp;&amp; CP.isJson( this.linkTarget ) ) { + Ext.apply( panelConfig, Ext.decode( this.linkTarget ) ); } + + CP.panelManager.addDetailPanel( panelConfig ); }, clearValue: function() {</t>
+  </si>
+  <si>
+    <t>sub getStoredQueryResult( $ ) { $cmdb-&gt;dbh-&gt;do( 'SET CURRENT QUERY OPTIMIZATION 2' ); $cmdb-&gt;dbh-&gt;{HandleError} = sub { + my $err = $cmdb-&gt;dbh-&gt;errstr; log_crit( $sql ); writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); - log_die( $cmdb-&gt;dbh-&gt;errstr ); + log_die( $err ); }; my $sth = $cmdb-&gt;dbh-&gt;prepare( $sql );</t>
+  </si>
+  <si>
+    <t>sub exportRawXml( $$$$ ) { my $currentCiId=0; my $isSelfClosing=1; my $rowRef; + my $lastQuery; my $startTime = time; my $item = "$schema.$tableAreaMapping{$tableArea}_item"; @@ -237,9 +238,20 @@ sub exportRawXml( $$$$ ) { $cmdb-&gt;dbh-&gt;do( 'SET CURRENT QUERY OPTIMIZATION 2' ); + + $cmdb-&gt;dbh-&gt;{Callbacks} = { + prepare =&gt; sub { + my ($dbh, $query, $attrs) = @_; + $lastQuery=$query; + return; + }, + }; + $cmdb-&gt;dbh-&gt;{HandleError} = sub { - writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); - croak( $cmdb-&gt;dbh-&gt;errstr ); + my $err = $cmdb-&gt;dbh-&gt;errstr; + log_crit( $lastQuery ); + writeErrorToDb( $config, $err ); + log_die( $err ); }; $propertySql = " @@ -256,7 +268,7 @@ sub exportRawXml( $$$$ ) { "; $referenceSql = " - with t ( ci_id ) as ( $sql ) + with t ( ci_id, ci_key ) as ( $sql ) select distinct ref.cir_id,srcCiType.cit_name as cit_name_src,srcItem.ci_key as ci_key_src, rtype.cirt_name,destCiType.cit_name as cit_name_dest, destItem.ci_key as ci_key_dest,ref.cir_cist_id @@ -359,6 +371,7 @@ sub getStoredQueryResult( $ ) { $cmdb-&gt;dbh-&gt;do( 'SET CURRENT QUERY OPTIMIZATION 2' ); $cmdb-&gt;dbh-&gt;{HandleError} = sub { + log_crit( $sql ); writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); log_die( $cmdb-&gt;dbh-&gt;errstr ); };</t>
+  </si>
+  <si>
+    <t>BEGIN { } use Carp; -use POSIX 'strftime'; +#use POSIX 'strftime'; use FindBin; use DBI; use DBD::DB2; use Cockpit::Config; use Cockpit::CI; +use Time::HiRes qw(time); +use Date::Format; my $log_levels = { 'DEBUG' =&gt; 1, @@ -44,7 +46,7 @@ my $log_levels = { my $log_level; my $max_log_level = 0; my $log_prefix = ''; -my $db_log = $FindBin::Script; +my $db_log = undef;#$FindBin::Script; sub set_log_level($); set_log_level(get_config_log_level()); @@ -276,7 +278,14 @@ sub log_msg($$) { chomp($msg); if ($fh) { - print $fh sprintf("%s [%-5s] %s%s\n", strftime('%Y-%m-%d %H:%M:%S', localtime), $severity, $log_prefix, $msg); + my $localtime = time; + my $timestamp = time2str( '%Y-%m-%d %H:%M:%S', $localtime); + my $msec; + $msec = sprintf( "%.3f", $localtime ); + ( $msec ) = ( $msec =~ /\d+\.(\d+)/ ); + $timestamp .= ".$msec"; + + print $fh sprintf("%s [%-5s] %s%s\n", $timestamp, $severity, $log_prefix, $msg); } if ($console) { if ($severity eq 'WARN' or $severity eq 'CRIT') {</t>
+  </si>
+  <si>
+    <t>use Cockpit::CI; use Cockpit::Tmp; use Cockpit::DB; use Archive::Zip; -use Carp qw( croak carp ); use Data::Dumper; use Scalar::Util qw(looks_like_number); use Time::HiRes qw(time); @@ -35,6 +34,8 @@ use File::Temp qw/ tempfile /; use File::Basename; use JSON; +$SIG{__DIE__} = sub { log_die(shift) }; + # Prototypes sub readJsonConfig( $ ); sub getStoredQueryResult( $ ); @@ -60,6 +61,9 @@ sub writeCsvRow( $$$\%\% ); sub closeFile( $ ); sub cdata( $ ); +# open log file +open_log( filename =&gt; '/data/log/perl/error.log', loglevel =&gt; 'DEBUG' ); + # initialize variables # flag to prevent infinite error logging @@ -72,7 +76,7 @@ my $args = getopt( qw( jsonFile|j=s ) ); my $tmpFileName; if ( !$args-&gt;{jsonFile} ) { - croak( 'Missing parameter --jsonFile!' ); + log_die( 'Missing parameter --jsonFile!' ); exit(1); } @@ -95,9 +99,6 @@ else { set_notesid( $config-&gt;{notesId} ); set_timestamp( $config-&gt;{timestamp} ); -# open log file TODO: check how to implement logging!!! -# open_log( filename =&gt; '/data/log/perl.log', loglevel =&gt; 'DEBUG' ); - my $mappingType = 'resourceBased'; # resourceBased || resultBased # map DB2 data types to report data types @@ -159,6 +160,8 @@ if ( not $config-&gt;{preserveOutputFile} ) { # close connection to CMDB $cmdb-&gt;disconnect(); +close_log(); + exit(0); @@ -357,7 +360,7 @@ sub getStoredQueryResult( $ ) { $cmdb-&gt;dbh-&gt;{HandleError} = sub { writeErrorToDb( $config, $cmdb-&gt;dbh-&gt;errstr ); - croak( $cmdb-&gt;dbh-&gt;errstr ); + log_die( $cmdb-&gt;dbh-&gt;errstr ); }; my $sth = $cmdb-&gt;dbh-&gt;prepare( $sql ); @@ -384,7 +387,7 @@ sub getStoredQueryResult( $ ) { ); # croak (-&gt; die) doesn't work in this case... so we use kill to end the process - carp( $err ); + log_crit( $err ); kill 9, $$; } else { @@ -1174,6 +1177,8 @@ sub writeResultToDb( $$ ) { sub writeErrorToDb( $$ ) { my ( $config, $errorMsg ) = @_; + $cmdb-&gt;dbh-&gt;{'HandleError'} = undef; + # do not write anything to db if preserveOutputFile is set if ( not $config-&gt;{preserveOutputFile} ) { my $sql = "</t>
+  </si>
+  <si>
+    <t>Predict how many Bugfixes per file depending on the other features</t>
   </si>
 </sst>
 </file>
@@ -509,216 +596,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD39BC6-75EA-8245-A144-D5101E6201F7}">
-  <dimension ref="C2:O56"/>
+  <dimension ref="C2:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="15" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="24" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1">
+        <v>813</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1">
+        <v>810</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="M7" s="1">
+        <v>653</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8">
+        <v>2924</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>233</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>754</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>371</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>229</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="3:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:16" ht="24" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -733,10 +1136,8 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -748,17 +1149,20 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -769,17 +1173,23 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -790,17 +1200,23 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -811,17 +1227,23 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -832,177 +1254,603 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D35" s="3"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="3:31" ht="24" x14ac:dyDescent="0.3">
       <c r="C38" s="5"/>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="3"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
     </row>
   </sheetData>
